--- a/back-end/Data/8-catalyzer-orange/5-TiO2/8-catalyzer-orange-5-TiO2-output_rgb_values.xlsx
+++ b/back-end/Data/8-catalyzer-orange/5-TiO2/8-catalyzer-orange-5-TiO2-output_rgb_values.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,148 +533,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1044,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1059,6 +1052,7 @@
     <col min="1" max="1" width="13.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3148148148148" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.8888888888889" style="2"/>
+    <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1087,13 +1081,13 @@
         <v>9.84739902561685</v>
       </c>
       <c r="C2" s="2">
-        <v>21.9530303030303</v>
+        <v>224.339393939394</v>
       </c>
       <c r="D2" s="2">
         <v>177.893939393939</v>
       </c>
       <c r="E2" s="2">
-        <v>224.339393939394</v>
+        <v>21.9530303030303</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1105,13 +1099,13 @@
         <v>10.994656608518</v>
       </c>
       <c r="C3" s="2">
-        <v>38.249494949495</v>
+        <v>221.288131313131</v>
       </c>
       <c r="D3" s="2">
         <v>178.551515151515</v>
       </c>
       <c r="E3" s="2">
-        <v>221.288131313131</v>
+        <v>38.249494949495</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1123,13 +1117,13 @@
         <v>13.7449316360207</v>
       </c>
       <c r="C4" s="2">
-        <v>50.1724747474747</v>
+        <v>230.047222222222</v>
       </c>
       <c r="D4" s="2">
         <v>180.72095959596</v>
       </c>
       <c r="E4" s="2">
-        <v>230.047222222222</v>
+        <v>50.1724747474747</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1141,13 +1135,13 @@
         <v>16.5266383781235</v>
       </c>
       <c r="C5" s="2">
-        <v>60.1439393939394</v>
+        <v>235.490151515151</v>
       </c>
       <c r="D5" s="2">
         <v>184.159090909091</v>
       </c>
       <c r="E5" s="2">
-        <v>235.490151515151</v>
+        <v>60.1439393939394</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1159,13 +1153,13 @@
         <v>17.045261669024</v>
       </c>
       <c r="C6" s="2">
-        <v>9.60883838383838</v>
+        <v>227.463383838384</v>
       </c>
       <c r="D6" s="2">
         <v>168.726515151515</v>
       </c>
       <c r="E6" s="2">
-        <v>227.463383838384</v>
+        <v>9.60883838383838</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1177,13 +1171,13 @@
         <v>19.7012415527267</v>
       </c>
       <c r="C7" s="2">
-        <v>30.8772727272727</v>
+        <v>228.678787878788</v>
       </c>
       <c r="D7" s="2">
         <v>169.581818181818</v>
       </c>
       <c r="E7" s="2">
-        <v>228.678787878788</v>
+        <v>30.8772727272727</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1195,13 +1189,13 @@
         <v>19.7483891246267</v>
       </c>
       <c r="C8" s="2">
-        <v>45.2931818181818</v>
+        <v>232.709343434343</v>
       </c>
       <c r="D8" s="2">
         <v>170.903787878788</v>
       </c>
       <c r="E8" s="2">
-        <v>232.709343434343</v>
+        <v>45.2931818181818</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1213,13 +1207,13 @@
         <v>20.0941379852271</v>
       </c>
       <c r="C9" s="2">
-        <v>57.5835858585859</v>
+        <v>244.445454545455</v>
       </c>
       <c r="D9" s="2">
         <v>177.168181818182</v>
       </c>
       <c r="E9" s="2">
-        <v>244.445454545455</v>
+        <v>57.5835858585859</v>
       </c>
     </row>
   </sheetData>
